--- a/Thesis_project/01_data-input/wiiw/wages1.xlsx
+++ b/Thesis_project/01_data-input/wiiw/wages1.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D4F9BB-42AD-40EE-BD26-A7FB32A7F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4228DD-8167-4DC1-8F67-8CB9A6A560E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_clean!$A$1:$X$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="50">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -153,6 +169,24 @@
   </si>
   <si>
     <t>http://wiiw.ac.at/annual-database.html</t>
+  </si>
+  <si>
+    <t>AL00</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>XK00</t>
+  </si>
+  <si>
+    <t>MD00</t>
   </si>
 </sst>
 </file>
@@ -162,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -197,6 +231,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,6 +272,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -2035,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A415CE-E393-4294-A516-270706A1BD15}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2053,10 +2099,10 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -2126,8 +2172,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2200,8 +2246,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2274,8 +2320,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2348,8 +2394,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="A5" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -2422,159 +2468,159 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="A6" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
-        <v>372</v>
-      </c>
-      <c r="F6" s="3">
-        <v>409</v>
-      </c>
-      <c r="G6" s="3">
-        <v>446</v>
-      </c>
-      <c r="H6" s="3">
-        <v>484</v>
-      </c>
-      <c r="I6" s="3">
-        <v>505</v>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="3">
-        <v>535</v>
+        <v>193</v>
       </c>
       <c r="K6" s="3">
-        <v>585.5</v>
+        <v>201</v>
       </c>
       <c r="L6" s="3">
-        <v>644.5</v>
+        <v>206</v>
       </c>
       <c r="M6" s="3">
-        <v>751.3</v>
+        <v>221</v>
       </c>
       <c r="N6" s="3">
-        <v>790.1</v>
+        <v>269</v>
       </c>
       <c r="O6" s="3">
-        <v>798.3</v>
+        <v>317</v>
       </c>
       <c r="P6" s="3">
-        <v>815.9</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="3">
-        <v>826</v>
+        <v>383</v>
       </c>
       <c r="R6" s="3">
-        <v>827</v>
+        <v>386</v>
       </c>
       <c r="S6" s="3">
-        <v>830.6</v>
+        <v>403</v>
       </c>
       <c r="T6" s="3">
-        <v>830.25</v>
+        <v>415</v>
       </c>
       <c r="U6" s="3">
-        <v>837.9</v>
+        <v>422</v>
       </c>
       <c r="V6" s="3">
-        <v>850.9</v>
+        <v>431</v>
       </c>
       <c r="W6" s="3">
-        <v>878.8</v>
+        <v>453</v>
       </c>
       <c r="X6" s="3">
-        <v>920.9</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
+      <c r="A7" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
-        <v>190.20057980000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>209.11837940000001</v>
-      </c>
-      <c r="G7" s="3">
-        <v>228.036179</v>
-      </c>
-      <c r="H7" s="3">
-        <v>247.4652705</v>
-      </c>
-      <c r="I7" s="3">
-        <v>258.20240000000001</v>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="3">
-        <v>273.54115639999998</v>
+        <v>193</v>
       </c>
       <c r="K7" s="3">
-        <v>299.36139639999999</v>
+        <v>201</v>
       </c>
       <c r="L7" s="3">
-        <v>329.5276174</v>
+        <v>206</v>
       </c>
       <c r="M7" s="3">
-        <v>384.13359029999998</v>
+        <v>221</v>
       </c>
       <c r="N7" s="3">
-        <v>403.97171530000003</v>
+        <v>269</v>
       </c>
       <c r="O7" s="3">
-        <v>408.16430880000001</v>
+        <v>317</v>
       </c>
       <c r="P7" s="3">
-        <v>417.16304589999999</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="3">
-        <v>422.32709390000002</v>
+        <v>383</v>
       </c>
       <c r="R7" s="3">
-        <v>422.8383857</v>
+        <v>386</v>
       </c>
       <c r="S7" s="3">
-        <v>424.6790365</v>
+        <v>403</v>
       </c>
       <c r="T7" s="3">
-        <v>424.50008439999999</v>
+        <v>415</v>
       </c>
       <c r="U7" s="3">
-        <v>428.41146730000003</v>
+        <v>422</v>
       </c>
       <c r="V7" s="3">
-        <v>435.0582617</v>
+        <v>431</v>
       </c>
       <c r="W7" s="3">
-        <v>449.32330519999999</v>
+        <v>453</v>
       </c>
       <c r="X7" s="3">
-        <v>470.8486934</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="A8" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2582,73 +2628,73 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>27</v>
+      <c r="E8" s="3">
+        <v>407.9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>543.70000000000005</v>
+      </c>
+      <c r="G8" s="3">
+        <v>691.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>890.8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1103.0999999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>193</v>
+        <v>1318.7</v>
       </c>
       <c r="K8" s="3">
-        <v>201</v>
+        <v>1697.1</v>
       </c>
       <c r="L8" s="3">
-        <v>206</v>
+        <v>2065</v>
       </c>
       <c r="M8" s="3">
-        <v>221</v>
+        <v>2529.6999999999998</v>
       </c>
       <c r="N8" s="3">
-        <v>269</v>
+        <v>2747.6</v>
       </c>
       <c r="O8" s="3">
-        <v>317</v>
+        <v>2971.7</v>
       </c>
       <c r="P8" s="3">
-        <v>392</v>
+        <v>3042.2</v>
       </c>
       <c r="Q8" s="3">
-        <v>383</v>
+        <v>3386.2</v>
       </c>
       <c r="R8" s="3">
-        <v>386</v>
+        <v>3674.2</v>
       </c>
       <c r="S8" s="3">
-        <v>403</v>
+        <v>4089.7</v>
       </c>
       <c r="T8" s="3">
-        <v>415</v>
+        <v>4538.3999999999996</v>
       </c>
       <c r="U8" s="3">
-        <v>422</v>
+        <v>4997.8</v>
       </c>
       <c r="V8" s="3">
-        <v>431</v>
+        <v>5587.4</v>
       </c>
       <c r="W8" s="3">
-        <v>453</v>
+        <v>6268</v>
       </c>
       <c r="X8" s="3">
-        <v>477</v>
+        <v>7233.7</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
+      <c r="A9" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2656,513 +2702,71 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>27</v>
+      <c r="E9" s="3">
+        <v>35.486536999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>47.180208100000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>53.881577399999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>56.5935846</v>
+      </c>
+      <c r="I9" s="3">
+        <v>71.963519199999993</v>
       </c>
       <c r="J9" s="3">
-        <v>193</v>
+        <v>84.005402000000004</v>
       </c>
       <c r="K9" s="3">
-        <v>201</v>
+        <v>102.9056865</v>
       </c>
       <c r="L9" s="3">
-        <v>206</v>
+        <v>124.4080826</v>
       </c>
       <c r="M9" s="3">
-        <v>221</v>
+        <v>165.43069399999999</v>
       </c>
       <c r="N9" s="3">
-        <v>269</v>
+        <v>176.981346</v>
       </c>
       <c r="O9" s="3">
-        <v>317</v>
+        <v>181.20674410000001</v>
       </c>
       <c r="P9" s="3">
-        <v>392</v>
+        <v>186.2164793</v>
       </c>
       <c r="Q9" s="3">
-        <v>383</v>
+        <v>217.57736199999999</v>
       </c>
       <c r="R9" s="3">
-        <v>386</v>
+        <v>219.69493130000001</v>
       </c>
       <c r="S9" s="3">
-        <v>403</v>
+        <v>219.49753380000001</v>
       </c>
       <c r="T9" s="3">
-        <v>415</v>
+        <v>217.16860030000001</v>
       </c>
       <c r="U9" s="3">
-        <v>422</v>
+        <v>226.6082667</v>
       </c>
       <c r="V9" s="3">
-        <v>431</v>
+        <v>268.26129959999997</v>
       </c>
       <c r="W9" s="3">
-        <v>453</v>
+        <v>315.86055370000003</v>
       </c>
       <c r="X9" s="3">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="3">
-        <v>177</v>
-      </c>
-      <c r="K10" s="3">
-        <v>184</v>
-      </c>
-      <c r="L10" s="3">
-        <v>188</v>
-      </c>
-      <c r="M10" s="3">
-        <v>202</v>
-      </c>
-      <c r="N10" s="3">
-        <v>246</v>
-      </c>
-      <c r="O10" s="3">
-        <v>288</v>
-      </c>
-      <c r="P10" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>348</v>
-      </c>
-      <c r="R10" s="3">
-        <v>351</v>
-      </c>
-      <c r="S10" s="3">
-        <v>365</v>
-      </c>
-      <c r="T10" s="3">
-        <v>376</v>
-      </c>
-      <c r="U10" s="3">
-        <v>382</v>
-      </c>
-      <c r="V10" s="3">
-        <v>390</v>
-      </c>
-      <c r="W10" s="3">
-        <v>409</v>
-      </c>
-      <c r="X10" s="3">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="3">
-        <v>177</v>
-      </c>
-      <c r="K11" s="3">
-        <v>184</v>
-      </c>
-      <c r="L11" s="3">
-        <v>188</v>
-      </c>
-      <c r="M11" s="3">
-        <v>202</v>
-      </c>
-      <c r="N11" s="3">
-        <v>246</v>
-      </c>
-      <c r="O11" s="3">
-        <v>288</v>
-      </c>
-      <c r="P11" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>348</v>
-      </c>
-      <c r="R11" s="3">
-        <v>351</v>
-      </c>
-      <c r="S11" s="3">
-        <v>365</v>
-      </c>
-      <c r="T11" s="3">
-        <v>376</v>
-      </c>
-      <c r="U11" s="3">
-        <v>382</v>
-      </c>
-      <c r="V11" s="3">
-        <v>390</v>
-      </c>
-      <c r="W11" s="3">
-        <v>409</v>
-      </c>
-      <c r="X11" s="3">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3">
-        <v>407.9</v>
-      </c>
-      <c r="F12" s="3">
-        <v>543.70000000000005</v>
-      </c>
-      <c r="G12" s="3">
-        <v>691.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>890.8</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1103.0999999999999</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1318.7</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1697.1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2065</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2529.6999999999998</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2747.6</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2971.7</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3042.2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3386.2</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3674.2</v>
-      </c>
-      <c r="S12" s="3">
-        <v>4089.7</v>
-      </c>
-      <c r="T12" s="3">
-        <v>4538.3999999999996</v>
-      </c>
-      <c r="U12" s="3">
-        <v>4997.8</v>
-      </c>
-      <c r="V12" s="3">
-        <v>5587.4</v>
-      </c>
-      <c r="W12" s="3">
-        <v>6268</v>
-      </c>
-      <c r="X12" s="3">
-        <v>7233.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3">
-        <v>35.486536999999998</v>
-      </c>
-      <c r="F13" s="3">
-        <v>47.180208100000002</v>
-      </c>
-      <c r="G13" s="3">
-        <v>53.881577399999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>56.5935846</v>
-      </c>
-      <c r="I13" s="3">
-        <v>71.963519199999993</v>
-      </c>
-      <c r="J13" s="3">
-        <v>84.005402000000004</v>
-      </c>
-      <c r="K13" s="3">
-        <v>102.9056865</v>
-      </c>
-      <c r="L13" s="3">
-        <v>124.4080826</v>
-      </c>
-      <c r="M13" s="3">
-        <v>165.43069399999999</v>
-      </c>
-      <c r="N13" s="3">
-        <v>176.981346</v>
-      </c>
-      <c r="O13" s="3">
-        <v>181.20674410000001</v>
-      </c>
-      <c r="P13" s="3">
-        <v>186.2164793</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>217.57736199999999</v>
-      </c>
-      <c r="R13" s="3">
-        <v>219.69493130000001</v>
-      </c>
-      <c r="S13" s="3">
-        <v>219.49753380000001</v>
-      </c>
-      <c r="T13" s="3">
-        <v>217.16860030000001</v>
-      </c>
-      <c r="U13" s="3">
-        <v>226.6082667</v>
-      </c>
-      <c r="V13" s="3">
-        <v>268.26129959999997</v>
-      </c>
-      <c r="W13" s="3">
-        <v>315.86055370000003</v>
-      </c>
-      <c r="X13" s="3">
         <v>367.67628509999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2553.6</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2832.7</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3072.2</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3398.9</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3751.6</v>
-      </c>
-      <c r="U14" s="3">
-        <v>4102.8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>4563.8999999999996</v>
-      </c>
-      <c r="W14" s="3">
-        <v>5141.8999999999996</v>
-      </c>
-      <c r="X14" s="3">
-        <v>6010.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="3">
-        <v>156.30872439999999</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>182.0126966</v>
-      </c>
-      <c r="R15" s="3">
-        <v>183.69897330000001</v>
-      </c>
-      <c r="S15" s="3">
-        <v>182.42173450000001</v>
-      </c>
-      <c r="T15" s="3">
-        <v>179.5191523</v>
-      </c>
-      <c r="U15" s="3">
-        <v>186.02753139999999</v>
-      </c>
-      <c r="V15" s="3">
-        <v>219.12119150000001</v>
-      </c>
-      <c r="W15" s="3">
-        <v>259.11349410000003</v>
-      </c>
-      <c r="X15" s="3">
-        <v>305.48284289999998</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:X9" xr:uid="{07A415CE-E393-4294-A516-270706A1BD15}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thesis_project/01_data-input/wiiw/wages1.xlsx
+++ b/Thesis_project/01_data-input/wiiw/wages1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4228DD-8167-4DC1-8F67-8CB9A6A560E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E6A98-6138-47DA-9737-4419DF37959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>MD00</t>
+  </si>
+  <si>
+    <t>NCU</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2182,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>13355</v>
@@ -2330,7 +2333,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
         <v>539</v>
@@ -2478,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -2626,7 +2629,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
         <v>407.9</v>
